--- a/webapp/Files/generate/资金期限表/资金期限表_2019_06_30.xlsx
+++ b/webapp/Files/generate/资金期限表/资金期限表_2019_06_30.xlsx
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="82" t="n">
-        <v>223.54</v>
+        <v>0</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="132" t="n"/>
@@ -2662,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="87" t="n">
-        <v>223.54</v>
+        <v>0</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -2682,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="84" t="n">
-        <v>223.54</v>
+        <v>0</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -2817,8 +2817,8 @@
       <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="82" t="n">
-        <v>0.16</v>
+      <c r="C18" s="82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -2857,8 +2857,8 @@
       <c r="B20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="84" t="n">
-        <v>0.16</v>
+      <c r="C20" s="134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>

--- a/webapp/Files/generate/资金期限表/资金期限表_2019_06_30.xlsx
+++ b/webapp/Files/generate/资金期限表/资金期限表_2019_06_30.xlsx
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="82" t="n">
-        <v>0</v>
+        <v>155900066.58</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="132" t="n"/>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="84" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="87" t="n">
-        <v>0</v>
+        <v>155899944.58</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -2682,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="84" t="n">
-        <v>0</v>
+        <v>154430351</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="84" t="n">
-        <v>0</v>
+        <v>1469593.58</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>1</v>
@@ -2817,8 +2817,8 @@
       <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="82" t="e">
-        <v>#N/A</v>
+      <c r="C18" s="82" t="n">
+        <v>-22.7</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -2857,8 +2857,8 @@
       <c r="B20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="134" t="e">
-        <v>#N/A</v>
+      <c r="C20" s="84" t="n">
+        <v>-22.7</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>
